--- a/Data CSDL.xlsx
+++ b/Data CSDL.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOANNAM3\XAY-DUNG-WEBSITE-DANG-KY-VA-QUAN-LY-HO-TICH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
   <si>
     <t>SỞ TƯ PHÁP THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
@@ -105,13 +106,538 @@
   </si>
   <si>
     <t>UBND XÃ BÌNH KHÁNH</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>UBND PHƯỜNG HIỆP PHÚ QUẬN 9</t>
+  </si>
+  <si>
+    <t>tuphapquan9@gmail.com</t>
+  </si>
+  <si>
+    <t>875, Trương Văn Thành, Phường Hiệp Phú, Quận 9, Tp. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>View đẹp</t>
+  </si>
+  <si>
+    <t>LOẠI GIẤY TỜ</t>
+  </si>
+  <si>
+    <t>QUẬN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cơ quan</t>
+  </si>
+  <si>
+    <t>Khai sinh</t>
+  </si>
+  <si>
+    <t>Kết hôn</t>
+  </si>
+  <si>
+    <t>Chứng tử</t>
+  </si>
+  <si>
+    <t>Giám hộ</t>
+  </si>
+  <si>
+    <t>Ly hôn</t>
+  </si>
+  <si>
+    <t>Nhận con nuôi</t>
+  </si>
+  <si>
+    <t>Nhận quan hệ</t>
+  </si>
+  <si>
+    <t>Bản sao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOẠI GIẤY TỜ</t>
+  </si>
+  <si>
+    <t>HOSO_DANGKY_ID</t>
+  </si>
+  <si>
+    <t>KHAISINH_TEN</t>
+  </si>
+  <si>
+    <t>KHAISINH_GIOITINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_NGAYSINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_DANTOC</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUOCTICH</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUEQUAN_QUOCGIA</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUEQUAN_THANHPHO</t>
+  </si>
+  <si>
+    <t>KHAISINH_NOISINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUOCGIA</t>
+  </si>
+  <si>
+    <t>KHAISINH_THANHPHO</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUAN</t>
+  </si>
+  <si>
+    <t>KHAISINH_PHUONG</t>
+  </si>
+  <si>
+    <t>ME_TEN</t>
+  </si>
+  <si>
+    <t>ME_NGAYSINH</t>
+  </si>
+  <si>
+    <t>ME_DANTOC</t>
+  </si>
+  <si>
+    <t>ME_CMND</t>
+  </si>
+  <si>
+    <t>ME_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>ME_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>ME_QUOCTICH</t>
+  </si>
+  <si>
+    <t>ME_THANHPHO</t>
+  </si>
+  <si>
+    <t>ME_QUAN</t>
+  </si>
+  <si>
+    <t>ME_PHUONG</t>
+  </si>
+  <si>
+    <t>ME_DIACHI</t>
+  </si>
+  <si>
+    <t>CHA_TEN</t>
+  </si>
+  <si>
+    <t>CHA_NGAYSINH</t>
+  </si>
+  <si>
+    <t>CHA_DANTOC</t>
+  </si>
+  <si>
+    <t>CHA_CMND</t>
+  </si>
+  <si>
+    <t>CHA_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>CHA_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>CHA_QUOCTICH</t>
+  </si>
+  <si>
+    <t>CHA_THANHPHO</t>
+  </si>
+  <si>
+    <t>CHA_QUAN</t>
+  </si>
+  <si>
+    <t>CHA_PHUONG</t>
+  </si>
+  <si>
+    <t>CHA_DIACHI</t>
+  </si>
+  <si>
+    <t>FILE_GIAYCHUNGSINH</t>
+  </si>
+  <si>
+    <t>NYC_TEN</t>
+  </si>
+  <si>
+    <t>NYC_CMND</t>
+  </si>
+  <si>
+    <t>NYC_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>NYC_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>NYC_QUOCTICH</t>
+  </si>
+  <si>
+    <t>NYC_THANHPHO</t>
+  </si>
+  <si>
+    <t>NYC_QUAN</t>
+  </si>
+  <si>
+    <t>NYC_PHUONG</t>
+  </si>
+  <si>
+    <t>NYC_DIACHI</t>
+  </si>
+  <si>
+    <t>NYC_QUANHE</t>
+  </si>
+  <si>
+    <t>@HOSO_DANGKY_ID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>,@NYC_TEN</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>,@NYC_CMND</t>
+  </si>
+  <si>
+    <t>nvarchar(12)</t>
+  </si>
+  <si>
+    <t>,@NYC_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>,@NYC_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+  </si>
+  <si>
+    <t>,@NYC_QUOCTICH</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>,@NYC_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@NYC_QUAN</t>
+  </si>
+  <si>
+    <t>,@NYC_PHUONG</t>
+  </si>
+  <si>
+    <t>,@NYC_DIACHI</t>
+  </si>
+  <si>
+    <t>,@NYC_QUANHE</t>
+  </si>
+  <si>
+    <t>,@KS_TEN</t>
+  </si>
+  <si>
+    <t>,@KS_GIOITINH</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>,@KS_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@KS_DANTOC</t>
+  </si>
+  <si>
+    <t>,@KS_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@KS_QUEQUAN_QUOCGIA</t>
+  </si>
+  <si>
+    <t>,@KS_QUEQUAN_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KS_NOISINH</t>
+  </si>
+  <si>
+    <t>,@KS_QUOCGIA</t>
+  </si>
+  <si>
+    <t>,@KS_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KS_QUAN</t>
+  </si>
+  <si>
+    <t>,@KS_PHUONG</t>
+  </si>
+  <si>
+    <t>,@ME_TEN</t>
+  </si>
+  <si>
+    <t>,@ME_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@ME_DANTOC</t>
+  </si>
+  <si>
+    <t>,@ME_CMND</t>
+  </si>
+  <si>
+    <t>,@ME_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@ME_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>,@ME_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@ME_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@ME_QUAN</t>
+  </si>
+  <si>
+    <t>,@ME_PHUONG</t>
+  </si>
+  <si>
+    <t>,@ME_DIACHI</t>
+  </si>
+  <si>
+    <t>,@CHA_TEN</t>
+  </si>
+  <si>
+    <t>,@CHA_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@CHA_DANTOC</t>
+  </si>
+  <si>
+    <t>,@CHA_CMND</t>
+  </si>
+  <si>
+    <t>,@CHA_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@CHA_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>,@CHA_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@CHA_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@CHA_QUAN</t>
+  </si>
+  <si>
+    <t>,@CHA_PHUONG</t>
+  </si>
+  <si>
+    <t>,@CHA_DIACHI</t>
+  </si>
+  <si>
+    <t>,@FILE_GIAYCHUNGSINH</t>
+  </si>
+  <si>
+    <t>,@KH_V_HOTEN</t>
+  </si>
+  <si>
+    <t>,@KH_V_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@KH_V_DANTOC</t>
+  </si>
+  <si>
+    <t>,@KH_V_CMND</t>
+  </si>
+  <si>
+    <t>,@KH_V_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@KH_V_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>,@KH_V_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@KH_V_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KH_V_QUAN</t>
+  </si>
+  <si>
+    <t>,@KH_V_PHUONG</t>
+  </si>
+  <si>
+    <t>,@KH_V_DIACHI</t>
+  </si>
+  <si>
+    <t>,@KH_V_LAN</t>
+  </si>
+  <si>
+    <t>,@KH_FILE_V</t>
+  </si>
+  <si>
+    <t>,@KH_C_HOTEN</t>
+  </si>
+  <si>
+    <t>,@KH_C_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@KH_C_DANTOC</t>
+  </si>
+  <si>
+    <t>,@KH_C_CMND</t>
+  </si>
+  <si>
+    <t>,@KH_C_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@KH_C_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>,@KH_C_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@KH_C_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KH_C_QUAN</t>
+  </si>
+  <si>
+    <t>,@KH_C_PHUONG</t>
+  </si>
+  <si>
+    <t>,@KH_C_DIACHI</t>
+  </si>
+  <si>
+    <t>,@KH_C_LAN</t>
+  </si>
+  <si>
+    <t>,@KH_FILE_C</t>
+  </si>
+  <si>
+    <t>,@KT_TEN</t>
+  </si>
+  <si>
+    <t>,@KT_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@KT_GIOITINH</t>
+  </si>
+  <si>
+    <t>,@KT_DANTOC</t>
+  </si>
+  <si>
+    <t>,@KT_CMND</t>
+  </si>
+  <si>
+    <t>,@KT_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@KT_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>,@KT_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@KT_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KT_QUAN</t>
+  </si>
+  <si>
+    <t>,@KT_PHUONG</t>
+  </si>
+  <si>
+    <t>,@KT_DIACHI</t>
+  </si>
+  <si>
+    <t>,@KT_NGAYMAT</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT</t>
+  </si>
+  <si>
+    <t>,@KT_NGUYENNHAN</t>
+  </si>
+  <si>
+    <t>,@KT_TENGIAYBAOTU</t>
+  </si>
+  <si>
+    <t>,@KT_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@KT_NOICAP</t>
+  </si>
+  <si>
+    <t>,@FILE_BAOTU_TEN</t>
+  </si>
+  <si>
+    <t>,@BS_TEN</t>
+  </si>
+  <si>
+    <t>,@BS_GTXN</t>
+  </si>
+  <si>
+    <t>,@BS_GTXN_NGAYCAP</t>
+  </si>
+  <si>
+    <t>,@BS_GTXN_NOICAP</t>
+  </si>
+  <si>
+    <t>,@BS_QUOCTICH</t>
+  </si>
+  <si>
+    <t>,@BS_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@BS_QUAN</t>
+  </si>
+  <si>
+    <t>,@BS_PHUONG</t>
+  </si>
+  <si>
+    <t>,@BS_DIACHI</t>
+  </si>
+  <si>
+    <t>,@LOAI_GIAYTO_ID</t>
+  </si>
+  <si>
+    <t>,@BS_SOQUYEN</t>
+  </si>
+  <si>
+    <t>,@BS_SO</t>
+  </si>
+  <si>
+    <t>,@BS_SOLUONG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +645,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,15 +699,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E29"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,16 +1048,26 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -506,270 +1115,1483 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1222522656</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E33" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:P82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" t="s">
+        <v>177</v>
+      </c>
+      <c r="P24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O29" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O33" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Data CSDL.xlsx
+++ b/Data CSDL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
   <si>
     <t>SỞ TƯ PHÁP THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
@@ -123,9 +123,6 @@
     <t>View đẹp</t>
   </si>
   <si>
-    <t>LOẠI GIẤY TỜ</t>
-  </si>
-  <si>
     <t>QUẬN</t>
   </si>
   <si>
@@ -631,6 +628,78 @@
   </si>
   <si>
     <t>,@BS_SOLUONG</t>
+  </si>
+  <si>
+    <t>THÀNH PHỐ</t>
+  </si>
+  <si>
+    <t>PHƯỜNG</t>
+  </si>
+  <si>
+    <t>THÀNH PHỐ HỒ CHÍ MINH</t>
+  </si>
+  <si>
+    <t>THÀNH PHỐ HÀ NỘI</t>
+  </si>
+  <si>
+    <t>TỈNH BẾN TRE</t>
+  </si>
+  <si>
+    <t>TỈNH VĨNH LONG</t>
+  </si>
+  <si>
+    <t>QUẬN 1</t>
+  </si>
+  <si>
+    <t>QUẬN 2</t>
+  </si>
+  <si>
+    <t>QUẬN 4</t>
+  </si>
+  <si>
+    <t>QUẬN 5</t>
+  </si>
+  <si>
+    <t>HUYỆN MỎ CÀY NAM</t>
+  </si>
+  <si>
+    <t>HUYỆN MỎ CÀY BẮC</t>
+  </si>
+  <si>
+    <t>HUYỆN THẠNH PHÚ</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 1</t>
+  </si>
+  <si>
+    <t>QUẬN 3</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 2</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 3</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 4</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 5</t>
+  </si>
+  <si>
+    <t>PHƯỜNG 6</t>
+  </si>
+  <si>
+    <t>XÃ ĐỊNH THỦY</t>
+  </si>
+  <si>
+    <t>XÃ PHƯỚC HIỆP</t>
+  </si>
+  <si>
+    <t>XÃ BÌNH KHÁNH</t>
+  </si>
+  <si>
+    <t>TÊN CƠ QUAN</t>
   </si>
 </sst>
 </file>
@@ -730,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,14 +807,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1037,30 +1109,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,67 +1146,135 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1138,11 +1284,26 @@
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -1150,13 +1311,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -1164,13 +1340,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -1178,13 +1369,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -1192,13 +1398,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1206,13 +1427,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -1220,13 +1456,28 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -1234,13 +1485,28 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -1248,21 +1514,43 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1273,10 +1561,25 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -1284,13 +1587,28 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -1298,13 +1616,28 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -1312,13 +1645,28 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -1326,13 +1674,28 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -1340,13 +1703,28 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -1354,13 +1732,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>7</v>
       </c>
@@ -1368,13 +1761,28 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>8</v>
       </c>
@@ -1382,13 +1790,28 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>9</v>
       </c>
@@ -1396,144 +1819,176 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <v>1222522656</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B32:G32"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H20:K20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1"/>
+    <hyperlink ref="F33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1544,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
@@ -1556,1042 +2011,1042 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
         <v>90</v>
       </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
       <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
         <v>90</v>
       </c>
-      <c r="M5" t="s">
-        <v>91</v>
-      </c>
       <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
         <v>90</v>
-      </c>
-      <c r="P5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
-        <v>93</v>
-      </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s">
         <v>94</v>
-      </c>
-      <c r="P7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s">
         <v>96</v>
-      </c>
-      <c r="P8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
       <c r="L10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="s">
         <v>100</v>
-      </c>
-      <c r="P10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
         <v>108</v>
       </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" t="s">
         <v>181</v>
-      </c>
-      <c r="P28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
         <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
         <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
         <v>96</v>
-      </c>
-      <c r="C62" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
         <v>100</v>
-      </c>
-      <c r="C64" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Data CSDL.xlsx
+++ b/Data CSDL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOANNAM3\XAY-DUNG-WEBSITE-DANG-KY-VA-QUAN-LY-HO-TICH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019\DOAN\XAY-DUNG-WEBSITE-DANG-KY-VA-QUAN-LY-HO-TICH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ID GIAY TO" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="424">
   <si>
     <t>SỞ TƯ PHÁP THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
@@ -700,6 +702,603 @@
   </si>
   <si>
     <t>TÊN CƠ QUAN</t>
+  </si>
+  <si>
+    <t>Khai Sinh - Đăng ký trong nước</t>
+  </si>
+  <si>
+    <t>Khai Sinh - Đăng ký có yếu tổ nước ngoài</t>
+  </si>
+  <si>
+    <t>Kết Hôn - Đăng ký trong nước</t>
+  </si>
+  <si>
+    <t>Kết Hôn - Đăng ký có yếu tổ nước ngoài</t>
+  </si>
+  <si>
+    <t>Khai Tử - Đăng ký trong nước</t>
+  </si>
+  <si>
+    <t>Khai Tử - Đăng ký có yếu tổ nước ngoài</t>
+  </si>
+  <si>
+    <t>Trích Lục Hộ Tịch - Đăng ký trong nước</t>
+  </si>
+  <si>
+    <t>Trích Lục Hộ Tịch - Đăng ký có yếu tổ nước ngoài</t>
+  </si>
+  <si>
+    <t>LOAI DK -ID</t>
+  </si>
+  <si>
+    <t>,N'Phan Văn Phước Thịnh'</t>
+  </si>
+  <si>
+    <t>,'321564307'</t>
+  </si>
+  <si>
+    <t>,'20/10/2012'</t>
+  </si>
+  <si>
+    <t>,N'Công An Tỉnh Bến Tre'</t>
+  </si>
+  <si>
+    <t>,N'Việt Nam'</t>
+  </si>
+  <si>
+    <t>,N'Bến Tre'</t>
+  </si>
+  <si>
+    <t>,N'Mỏ Cày Nam'</t>
+  </si>
+  <si>
+    <t>,N'Định Thủy'</t>
+  </si>
+  <si>
+    <t>,N'Số 21, Ấp Thanh Thủy'</t>
+  </si>
+  <si>
+    <t>,N'Cha ruộc'</t>
+  </si>
+  <si>
+    <t>,N'Huỳnh Lê Hữu Hưng'</t>
+  </si>
+  <si>
+    <t>,N'Nam'</t>
+  </si>
+  <si>
+    <t>,'20/10/1993'</t>
+  </si>
+  <si>
+    <t>,'Kinh'</t>
+  </si>
+  <si>
+    <t>,'Việt Nam'</t>
+  </si>
+  <si>
+    <t>,N'TP HCM'</t>
+  </si>
+  <si>
+    <t>,N'QUẬN 8'</t>
+  </si>
+  <si>
+    <t>,N'Phường 3'</t>
+  </si>
+  <si>
+    <t>,N'Số 234, đường phạm ngủ lão'</t>
+  </si>
+  <si>
+    <t>,N'Bệnh viện Quận 3'</t>
+  </si>
+  <si>
+    <t>,N'TP.HCM'</t>
+  </si>
+  <si>
+    <t>,N'Quận 3'</t>
+  </si>
+  <si>
+    <t>,N'Nguyễn Thị A'</t>
+  </si>
+  <si>
+    <t>,N'Kinh'</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_TEN</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_CMND</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_QUOCTICH</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_THANHPHO</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_QUAN</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_PHUONG</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_DIACHI</t>
+  </si>
+  <si>
+    <t>NGUOIYEUCAU_QUANHE</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUEQUAN_QUAN</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUEQUAN_PHUONG</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUEQUAN_DIACHI</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUOCGIA_NOISINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_THANHPHO_NOISINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_QUAN_NOISINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_PHUONG_NOISINH</t>
+  </si>
+  <si>
+    <t>KHAISINH_DIACHI_NOISINH</t>
+  </si>
+  <si>
+    <t>@NYC_TEN</t>
+  </si>
+  <si>
+    <t>@NYC_CMND</t>
+  </si>
+  <si>
+    <t>@NYC_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>@NYC_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>@NYC_QUOCTICH</t>
+  </si>
+  <si>
+    <t>@NYC_THANHPHO</t>
+  </si>
+  <si>
+    <t>@NYC_QUAN</t>
+  </si>
+  <si>
+    <t>@NYC_PHUONG</t>
+  </si>
+  <si>
+    <t>@NYC_DIACHI</t>
+  </si>
+  <si>
+    <t>@NYC_QUANHE</t>
+  </si>
+  <si>
+    <t>@KS_TEN</t>
+  </si>
+  <si>
+    <t>@KS_GIOITINH</t>
+  </si>
+  <si>
+    <t>@KS_NGAYSINH</t>
+  </si>
+  <si>
+    <t>@KS_DANTOC</t>
+  </si>
+  <si>
+    <t>@KS_QUOCTICH</t>
+  </si>
+  <si>
+    <t>@KS_QUEQUAN_THANHPHO</t>
+  </si>
+  <si>
+    <t>@KS_QUEQUAN_QUAN</t>
+  </si>
+  <si>
+    <t>@KS_QUEQUAN_PHUONG</t>
+  </si>
+  <si>
+    <t>@KS_QUEQUAN_DIACHI</t>
+  </si>
+  <si>
+    <t>@KS_NOISINH</t>
+  </si>
+  <si>
+    <t>@KS_QUOCGIA_NOISINH</t>
+  </si>
+  <si>
+    <t>@KS_THANHPHO_NOISINH</t>
+  </si>
+  <si>
+    <t>@KS_QUAN_NOISINH</t>
+  </si>
+  <si>
+    <t>@KS_PHUONG_NOISINH</t>
+  </si>
+  <si>
+    <t>@KS_DIACHI_NOISINH</t>
+  </si>
+  <si>
+    <t>@ME_TEN</t>
+  </si>
+  <si>
+    <t>@ME_NGAYSINH</t>
+  </si>
+  <si>
+    <t>@ME_CMND</t>
+  </si>
+  <si>
+    <t>@ME_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>@ME_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>@ME_DANTOC</t>
+  </si>
+  <si>
+    <t>@ME_QUOCTICH</t>
+  </si>
+  <si>
+    <t>@ME_THANHPHO</t>
+  </si>
+  <si>
+    <t>@ME_QUAN</t>
+  </si>
+  <si>
+    <t>@ME_PHUONG</t>
+  </si>
+  <si>
+    <t>@ME_DIACHI</t>
+  </si>
+  <si>
+    <t>@CHA_TEN</t>
+  </si>
+  <si>
+    <t>@CHA_NGAYSINH</t>
+  </si>
+  <si>
+    <t>@CHA_CMND</t>
+  </si>
+  <si>
+    <t>@CHA_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>@CHA_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>@CHA_DANTOC</t>
+  </si>
+  <si>
+    <t>@CHA_QUOCTICH</t>
+  </si>
+  <si>
+    <t>@CHA_THANHPHO</t>
+  </si>
+  <si>
+    <t>@CHA_QUAN</t>
+  </si>
+  <si>
+    <t>@CHA_PHUONG</t>
+  </si>
+  <si>
+    <t>@CHA_DIACHI</t>
+  </si>
+  <si>
+    <t>@FILE_GIAYCHUNGSINH</t>
+  </si>
+  <si>
+    <t>KETHON_V_HOTEN</t>
+  </si>
+  <si>
+    <t>KETHON_V_NGAYSINH</t>
+  </si>
+  <si>
+    <t>KETHON_V_DANTOC</t>
+  </si>
+  <si>
+    <t>KETHON_V_CMND</t>
+  </si>
+  <si>
+    <t>KETHON_V_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>KETHON_V_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>KETHON_V_QUOCTICH</t>
+  </si>
+  <si>
+    <t>KETHON_V_THANHPHO</t>
+  </si>
+  <si>
+    <t>KETHON_V_QUAN</t>
+  </si>
+  <si>
+    <t>KETHON_V_PHUONG</t>
+  </si>
+  <si>
+    <t>KETHON_V_DIACHI</t>
+  </si>
+  <si>
+    <t>KETHON_V_LAN</t>
+  </si>
+  <si>
+    <t>KETHON_FILE_V</t>
+  </si>
+  <si>
+    <t>KETHON_C_HOTEN</t>
+  </si>
+  <si>
+    <t>KETHON_C_NGAYSINH</t>
+  </si>
+  <si>
+    <t>KETHON_C_DANTOC</t>
+  </si>
+  <si>
+    <t>KETHON_C_CMND</t>
+  </si>
+  <si>
+    <t>KETHON_C_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>KETHON_C_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>KETHON_C_QUOCTICH</t>
+  </si>
+  <si>
+    <t>KETHON_C_THANHPHO</t>
+  </si>
+  <si>
+    <t>KETHON_C_QUAN</t>
+  </si>
+  <si>
+    <t>KETHON_C_PHUONG</t>
+  </si>
+  <si>
+    <t>KETHON_C_DIACHI</t>
+  </si>
+  <si>
+    <t>KETHON_C_LAN</t>
+  </si>
+  <si>
+    <t>KETHON_FILE_C</t>
+  </si>
+  <si>
+    <t>,'20121210'</t>
+  </si>
+  <si>
+    <t>,N'1'</t>
+  </si>
+  <si>
+    <t>,'6266.png';</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>TP HCM</t>
+  </si>
+  <si>
+    <t>QUẬN 8</t>
+  </si>
+  <si>
+    <t>Phường 3</t>
+  </si>
+  <si>
+    <t>Số 234, đường phạm ngủ lão</t>
+  </si>
+  <si>
+    <t>Bệnh viện Quận 3</t>
+  </si>
+  <si>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>,N'Phan Thị C'</t>
+  </si>
+  <si>
+    <t>,N'Phan Văn A'</t>
+  </si>
+  <si>
+    <t>@HSDK_ID</t>
+  </si>
+  <si>
+    <t>KHAITU_TEN</t>
+  </si>
+  <si>
+    <t>KHAITU_NGAYSINH</t>
+  </si>
+  <si>
+    <t>KHAITU_GIOITINH</t>
+  </si>
+  <si>
+    <t>KHAITU_DANTOC</t>
+  </si>
+  <si>
+    <t>KHAITU_CMND</t>
+  </si>
+  <si>
+    <t>KHAITU_CMND_NGAYCAP</t>
+  </si>
+  <si>
+    <t>KHAITU_CMND_NOICAP</t>
+  </si>
+  <si>
+    <t>KHAITU_QUOCTICH</t>
+  </si>
+  <si>
+    <t>KHAITU_THANHPHO</t>
+  </si>
+  <si>
+    <t>KHAITU_QUAN</t>
+  </si>
+  <si>
+    <t>KHAITU_PHUONG</t>
+  </si>
+  <si>
+    <t>KHAITU_DIACHI</t>
+  </si>
+  <si>
+    <t>KHAITU_NGUYENNHAN</t>
+  </si>
+  <si>
+    <t>KHAITU_NGAYMAT</t>
+  </si>
+  <si>
+    <t>KHAITU_THOIGIAN</t>
+  </si>
+  <si>
+    <t>time(7)</t>
+  </si>
+  <si>
+    <t>KHAITU_NOIMAT_QUOCGIA</t>
+  </si>
+  <si>
+    <t>KHAITU_NOIMAT_THANHPHO</t>
+  </si>
+  <si>
+    <t>KHAITU_NOIMAT_QUAN</t>
+  </si>
+  <si>
+    <t>KHAITU_NOIMAT_PHUONG</t>
+  </si>
+  <si>
+    <t>KHAITU_NOIMAT_DIACHI</t>
+  </si>
+  <si>
+    <t>FILE_BAOTU_TEN</t>
+  </si>
+  <si>
+    <t>,@KT_THOIGIAN</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT_QUOCGIA</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT_THANHPHO</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT_QUAN</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT_PHUONG</t>
+  </si>
+  <si>
+    <t>,@KT_NOIMAT_DIACHI</t>
+  </si>
+  <si>
+    <t>,FILE_BAOTU_TEN</t>
+  </si>
+  <si>
+    <t>,1</t>
+  </si>
+  <si>
+    <t>,'6266.png'</t>
+  </si>
+  <si>
+    <t>,N'Cháu'</t>
+  </si>
+  <si>
+    <t>,N'Bệnh Già'</t>
+  </si>
+  <si>
+    <t>,'080001'</t>
+  </si>
+  <si>
+    <t>,@BS_NGAYSINH</t>
+  </si>
+  <si>
+    <t>,@BS_GIOITINH</t>
+  </si>
+  <si>
+    <t>,2</t>
+  </si>
+  <si>
+    <t>,001</t>
+  </si>
+  <si>
+    <t>,12</t>
+  </si>
+  <si>
+    <t>,3</t>
+  </si>
+  <si>
+    <t>Bảng chứng tử</t>
+  </si>
+  <si>
+    <t>Phan Văn Phước Thịnh</t>
+  </si>
+  <si>
+    <t>Công An Tỉnh Bến Tre</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>Mỏ Cày Nam</t>
+  </si>
+  <si>
+    <t>Định Thủy</t>
+  </si>
+  <si>
+    <t>Số 21, Ấp Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Cha ruộc</t>
+  </si>
+  <si>
+    <t>Huỳnh Lê Hữu Hưng</t>
+  </si>
+  <si>
+    <t>Vi?t Nam</t>
+  </si>
+  <si>
+    <t>Quận 3</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị A</t>
+  </si>
+  <si>
+    <t>6266.png</t>
+  </si>
+  <si>
+    <t>Phan Thị C</t>
+  </si>
+  <si>
+    <t>Phan Văn A</t>
+  </si>
+  <si>
+    <t>Cháu</t>
+  </si>
+  <si>
+    <t>Bệnh Già</t>
+  </si>
+  <si>
+    <t>HOSODK</t>
   </si>
 </sst>
 </file>
@@ -745,7 +1344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -794,12 +1393,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,6 +1423,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,8 +1438,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K45"/>
+  <dimension ref="B2:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D63" sqref="C63:AH64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,17 +1744,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1260,19 +1878,19 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1477,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -1506,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -1535,22 +2153,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -1590,7 +2208,7 @@
         <v>214</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1607,8 +2225,20 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -1619,7 +2249,7 @@
         <v>216</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1636,8 +2266,20 @@
       <c r="K23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -1665,8 +2307,20 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -1694,8 +2348,20 @@
       <c r="K25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -1723,8 +2389,12 @@
       <c r="K26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -1752,8 +2422,12 @@
       <c r="K27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>7</v>
       </c>
@@ -1781,8 +2455,12 @@
       <c r="K28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>8</v>
       </c>
@@ -1810,8 +2488,12 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>9</v>
       </c>
@@ -1839,156 +2521,1059 @@
       <c r="K30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <v>1222522656</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="49" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C49" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13">
+        <v>41194</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F51" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:51" ht="60" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F52" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" s="13">
+        <v>41253</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="AQ52" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AR52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV52" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY52" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="3:51" ht="60" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F53" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13">
+        <v>41253</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD53" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="AF53" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK53" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN53" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO53" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="AQ53" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV53" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY53" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F54" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F55" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:51" ht="45" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F56" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="R56" s="13">
+        <v>41253</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="T56" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="U56" s="13">
+        <v>41253</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F57" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F58" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F59" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:51" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="13">
+        <v>43424</v>
+      </c>
+      <c r="F60" s="13">
+        <v>43426</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="O60" s="13">
+        <v>41253</v>
+      </c>
+      <c r="P60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="V60" s="2">
+        <v>2</v>
+      </c>
+      <c r="W60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C63" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="3:51" ht="45" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="F64" s="13">
+        <v>41253</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" s="13">
+        <v>41253</v>
+      </c>
+      <c r="P64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R64" s="2">
+        <v>321564307</v>
+      </c>
+      <c r="S64" s="13">
+        <v>41253</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA64" s="13">
+        <v>41253</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>0.33334490740740735</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H20:K20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1"/>
+    <hyperlink ref="F35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3052,4 +4637,3967 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W273"/>
+  <sheetViews>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208:D238"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="15" width="33.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="49.140625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>235</v>
+      </c>
+      <c r="U6" t="s">
+        <v>261</v>
+      </c>
+      <c r="V6" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>236</v>
+      </c>
+      <c r="U7" t="s">
+        <v>262</v>
+      </c>
+      <c r="V7" t="s">
+        <v>96</v>
+      </c>
+      <c r="W7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>237</v>
+      </c>
+      <c r="U8" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>238</v>
+      </c>
+      <c r="U9" t="s">
+        <v>264</v>
+      </c>
+      <c r="V9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>239</v>
+      </c>
+      <c r="U10" t="s">
+        <v>265</v>
+      </c>
+      <c r="V10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>240</v>
+      </c>
+      <c r="U11" t="s">
+        <v>266</v>
+      </c>
+      <c r="V11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>241</v>
+      </c>
+      <c r="U12" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>242</v>
+      </c>
+      <c r="U13" t="s">
+        <v>268</v>
+      </c>
+      <c r="V13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>243</v>
+      </c>
+      <c r="U14" t="s">
+        <v>269</v>
+      </c>
+      <c r="V14" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
+        <v>244</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="R16" t="s">
+        <v>245</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" t="s">
+        <v>108</v>
+      </c>
+      <c r="W16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>246</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>247</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>100</v>
+      </c>
+      <c r="W18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>248</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>249</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>100</v>
+      </c>
+      <c r="W20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>250</v>
+      </c>
+      <c r="U21" t="s">
+        <v>270</v>
+      </c>
+      <c r="V21" t="s">
+        <v>100</v>
+      </c>
+      <c r="W21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>251</v>
+      </c>
+      <c r="U22" t="s">
+        <v>271</v>
+      </c>
+      <c r="V22" t="s">
+        <v>100</v>
+      </c>
+      <c r="W22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="R23" t="s">
+        <v>252</v>
+      </c>
+      <c r="U23" t="s">
+        <v>272</v>
+      </c>
+      <c r="V23" t="s">
+        <v>100</v>
+      </c>
+      <c r="W23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
+        <v>253</v>
+      </c>
+      <c r="U24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" t="s">
+        <v>100</v>
+      </c>
+      <c r="W24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="R25" t="s">
+        <v>238</v>
+      </c>
+      <c r="U25" t="s">
+        <v>273</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>254</v>
+      </c>
+      <c r="U26" t="s">
+        <v>274</v>
+      </c>
+      <c r="V26" t="s">
+        <v>100</v>
+      </c>
+      <c r="W26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
+        <v>255</v>
+      </c>
+      <c r="U27" t="s">
+        <v>275</v>
+      </c>
+      <c r="V27" t="s">
+        <v>100</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>251</v>
+      </c>
+      <c r="U28" t="s">
+        <v>276</v>
+      </c>
+      <c r="V28" t="s">
+        <v>100</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>252</v>
+      </c>
+      <c r="U29" t="s">
+        <v>277</v>
+      </c>
+      <c r="V29" t="s">
+        <v>100</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>256</v>
+      </c>
+      <c r="U30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" t="s">
+        <v>98</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="R31" t="s">
+        <v>246</v>
+      </c>
+      <c r="U31" t="s">
+        <v>57</v>
+      </c>
+      <c r="V31" t="s">
+        <v>96</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="R32" t="s">
+        <v>235</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>94</v>
+      </c>
+      <c r="W32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="R33" t="s">
+        <v>236</v>
+      </c>
+      <c r="U33" t="s">
+        <v>60</v>
+      </c>
+      <c r="V33" t="s">
+        <v>96</v>
+      </c>
+      <c r="W33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="R34" t="s">
+        <v>237</v>
+      </c>
+      <c r="U34" t="s">
+        <v>61</v>
+      </c>
+      <c r="V34" t="s">
+        <v>98</v>
+      </c>
+      <c r="W34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
+        <v>257</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>100</v>
+      </c>
+      <c r="W35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="R36" t="s">
+        <v>238</v>
+      </c>
+      <c r="U36" t="s">
+        <v>62</v>
+      </c>
+      <c r="V36" t="s">
+        <v>100</v>
+      </c>
+      <c r="W36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>34</v>
+      </c>
+      <c r="R37" t="s">
+        <v>254</v>
+      </c>
+      <c r="U37" t="s">
+        <v>63</v>
+      </c>
+      <c r="V37" t="s">
+        <v>92</v>
+      </c>
+      <c r="W37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="R38" t="s">
+        <v>255</v>
+      </c>
+      <c r="U38" t="s">
+        <v>64</v>
+      </c>
+      <c r="V38" t="s">
+        <v>92</v>
+      </c>
+      <c r="W38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s">
+        <v>251</v>
+      </c>
+      <c r="U39" t="s">
+        <v>65</v>
+      </c>
+      <c r="V39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>252</v>
+      </c>
+      <c r="U40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" t="s">
+        <v>98</v>
+      </c>
+      <c r="W40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>38</v>
+      </c>
+      <c r="R41" t="s">
+        <v>234</v>
+      </c>
+      <c r="U41" t="s">
+        <v>67</v>
+      </c>
+      <c r="V41" t="s">
+        <v>98</v>
+      </c>
+      <c r="W41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>246</v>
+      </c>
+      <c r="U42" t="s">
+        <v>68</v>
+      </c>
+      <c r="V42" t="s">
+        <v>96</v>
+      </c>
+      <c r="W42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s">
+        <v>235</v>
+      </c>
+      <c r="U43" t="s">
+        <v>70</v>
+      </c>
+      <c r="V43" t="s">
+        <v>94</v>
+      </c>
+      <c r="W43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>41</v>
+      </c>
+      <c r="R44" t="s">
+        <v>236</v>
+      </c>
+      <c r="U44" t="s">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s">
+        <v>96</v>
+      </c>
+      <c r="W44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s">
+        <v>237</v>
+      </c>
+      <c r="U45" t="s">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s">
+        <v>98</v>
+      </c>
+      <c r="W45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s">
+        <v>257</v>
+      </c>
+      <c r="U46" t="s">
+        <v>69</v>
+      </c>
+      <c r="V46" t="s">
+        <v>100</v>
+      </c>
+      <c r="W46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>44</v>
+      </c>
+      <c r="R47" t="s">
+        <v>238</v>
+      </c>
+      <c r="U47" t="s">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s">
+        <v>100</v>
+      </c>
+      <c r="W47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>45</v>
+      </c>
+      <c r="R48" t="s">
+        <v>254</v>
+      </c>
+      <c r="U48" t="s">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s">
+        <v>92</v>
+      </c>
+      <c r="W48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>46</v>
+      </c>
+      <c r="R49" t="s">
+        <v>255</v>
+      </c>
+      <c r="U49" t="s">
+        <v>75</v>
+      </c>
+      <c r="V49" t="s">
+        <v>92</v>
+      </c>
+      <c r="W49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>47</v>
+      </c>
+      <c r="R50" t="s">
+        <v>251</v>
+      </c>
+      <c r="U50" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s">
+        <v>92</v>
+      </c>
+      <c r="W50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="R51" t="s">
+        <v>252</v>
+      </c>
+      <c r="U51" t="s">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s">
+        <v>98</v>
+      </c>
+      <c r="W51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s">
+        <v>98</v>
+      </c>
+      <c r="W52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="W53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>90</v>
+      </c>
+      <c r="R61" t="s">
+        <v>258</v>
+      </c>
+      <c r="U61" t="s">
+        <v>43</v>
+      </c>
+      <c r="V61" t="s">
+        <v>90</v>
+      </c>
+      <c r="W61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R62" t="s">
+        <v>260</v>
+      </c>
+      <c r="U62" t="s">
+        <v>259</v>
+      </c>
+      <c r="V62" t="s">
+        <v>92</v>
+      </c>
+      <c r="W62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>94</v>
+      </c>
+      <c r="R63" t="s">
+        <v>260</v>
+      </c>
+      <c r="U63" t="s">
+        <v>261</v>
+      </c>
+      <c r="V63" t="s">
+        <v>94</v>
+      </c>
+      <c r="W63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>96</v>
+      </c>
+      <c r="R64" t="s">
+        <v>260</v>
+      </c>
+      <c r="U64" t="s">
+        <v>262</v>
+      </c>
+      <c r="V64" t="s">
+        <v>96</v>
+      </c>
+      <c r="W64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>98</v>
+      </c>
+      <c r="R65" t="s">
+        <v>260</v>
+      </c>
+      <c r="U65" t="s">
+        <v>263</v>
+      </c>
+      <c r="V65" t="s">
+        <v>98</v>
+      </c>
+      <c r="W65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>100</v>
+      </c>
+      <c r="R66" t="s">
+        <v>260</v>
+      </c>
+      <c r="U66" t="s">
+        <v>264</v>
+      </c>
+      <c r="V66" t="s">
+        <v>100</v>
+      </c>
+      <c r="W66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" t="s">
+        <v>260</v>
+      </c>
+      <c r="U67" t="s">
+        <v>265</v>
+      </c>
+      <c r="V67" t="s">
+        <v>92</v>
+      </c>
+      <c r="W67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>92</v>
+      </c>
+      <c r="R68" t="s">
+        <v>260</v>
+      </c>
+      <c r="U68" t="s">
+        <v>266</v>
+      </c>
+      <c r="V68" t="s">
+        <v>92</v>
+      </c>
+      <c r="W68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R69" t="s">
+        <v>260</v>
+      </c>
+      <c r="U69" t="s">
+        <v>267</v>
+      </c>
+      <c r="V69" t="s">
+        <v>92</v>
+      </c>
+      <c r="W69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>98</v>
+      </c>
+      <c r="R70" t="s">
+        <v>260</v>
+      </c>
+      <c r="U70" t="s">
+        <v>268</v>
+      </c>
+      <c r="V70" t="s">
+        <v>98</v>
+      </c>
+      <c r="W70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>98</v>
+      </c>
+      <c r="R71" t="s">
+        <v>260</v>
+      </c>
+      <c r="U71" t="s">
+        <v>269</v>
+      </c>
+      <c r="V71" t="s">
+        <v>98</v>
+      </c>
+      <c r="W71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>98</v>
+      </c>
+      <c r="R72" t="s">
+        <v>260</v>
+      </c>
+      <c r="U72" t="s">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s">
+        <v>98</v>
+      </c>
+      <c r="W72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>108</v>
+      </c>
+      <c r="R73" t="s">
+        <v>260</v>
+      </c>
+      <c r="U73" t="s">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s">
+        <v>108</v>
+      </c>
+      <c r="W73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>96</v>
+      </c>
+      <c r="R74" t="s">
+        <v>260</v>
+      </c>
+      <c r="U74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V74" t="s">
+        <v>96</v>
+      </c>
+      <c r="W74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>100</v>
+      </c>
+      <c r="R75" t="s">
+        <v>260</v>
+      </c>
+      <c r="U75" t="s">
+        <v>47</v>
+      </c>
+      <c r="V75" t="s">
+        <v>100</v>
+      </c>
+      <c r="W75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R76" t="s">
+        <v>260</v>
+      </c>
+      <c r="U76" t="s">
+        <v>48</v>
+      </c>
+      <c r="V76" t="s">
+        <v>100</v>
+      </c>
+      <c r="W76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>100</v>
+      </c>
+      <c r="R77" t="s">
+        <v>260</v>
+      </c>
+      <c r="U77" t="s">
+        <v>50</v>
+      </c>
+      <c r="V77" t="s">
+        <v>100</v>
+      </c>
+      <c r="W77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>100</v>
+      </c>
+      <c r="R78" t="s">
+        <v>260</v>
+      </c>
+      <c r="U78" t="s">
+        <v>270</v>
+      </c>
+      <c r="V78" t="s">
+        <v>100</v>
+      </c>
+      <c r="W78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" t="s">
+        <v>260</v>
+      </c>
+      <c r="U79" t="s">
+        <v>271</v>
+      </c>
+      <c r="V79" t="s">
+        <v>100</v>
+      </c>
+      <c r="W79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P80" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>100</v>
+      </c>
+      <c r="R80" t="s">
+        <v>260</v>
+      </c>
+      <c r="U80" t="s">
+        <v>272</v>
+      </c>
+      <c r="V80" t="s">
+        <v>100</v>
+      </c>
+      <c r="W80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>100</v>
+      </c>
+      <c r="R81" t="s">
+        <v>260</v>
+      </c>
+      <c r="U81" t="s">
+        <v>51</v>
+      </c>
+      <c r="V81" t="s">
+        <v>100</v>
+      </c>
+      <c r="W81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P82" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>100</v>
+      </c>
+      <c r="R82" t="s">
+        <v>260</v>
+      </c>
+      <c r="U82" t="s">
+        <v>273</v>
+      </c>
+      <c r="V82" t="s">
+        <v>100</v>
+      </c>
+      <c r="W82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>100</v>
+      </c>
+      <c r="R83" t="s">
+        <v>260</v>
+      </c>
+      <c r="U83" t="s">
+        <v>274</v>
+      </c>
+      <c r="V83" t="s">
+        <v>100</v>
+      </c>
+      <c r="W83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P84" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>100</v>
+      </c>
+      <c r="R84" t="s">
+        <v>260</v>
+      </c>
+      <c r="U84" t="s">
+        <v>275</v>
+      </c>
+      <c r="V84" t="s">
+        <v>100</v>
+      </c>
+      <c r="W84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P85" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>100</v>
+      </c>
+      <c r="R85" t="s">
+        <v>260</v>
+      </c>
+      <c r="U85" t="s">
+        <v>276</v>
+      </c>
+      <c r="V85" t="s">
+        <v>100</v>
+      </c>
+      <c r="W85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>100</v>
+      </c>
+      <c r="R86" t="s">
+        <v>260</v>
+      </c>
+      <c r="U86" t="s">
+        <v>277</v>
+      </c>
+      <c r="V86" t="s">
+        <v>100</v>
+      </c>
+      <c r="W86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>98</v>
+      </c>
+      <c r="R87" t="s">
+        <v>260</v>
+      </c>
+      <c r="U87" t="s">
+        <v>56</v>
+      </c>
+      <c r="V87" t="s">
+        <v>98</v>
+      </c>
+      <c r="W87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>96</v>
+      </c>
+      <c r="R88" t="s">
+        <v>260</v>
+      </c>
+      <c r="U88" t="s">
+        <v>57</v>
+      </c>
+      <c r="V88" t="s">
+        <v>96</v>
+      </c>
+      <c r="W88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>94</v>
+      </c>
+      <c r="R89" t="s">
+        <v>260</v>
+      </c>
+      <c r="U89" t="s">
+        <v>59</v>
+      </c>
+      <c r="V89" t="s">
+        <v>94</v>
+      </c>
+      <c r="W89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P90" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>96</v>
+      </c>
+      <c r="R90" t="s">
+        <v>260</v>
+      </c>
+      <c r="U90" t="s">
+        <v>60</v>
+      </c>
+      <c r="V90" t="s">
+        <v>96</v>
+      </c>
+      <c r="W90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>98</v>
+      </c>
+      <c r="R91" t="s">
+        <v>260</v>
+      </c>
+      <c r="U91" t="s">
+        <v>61</v>
+      </c>
+      <c r="V91" t="s">
+        <v>98</v>
+      </c>
+      <c r="W91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P92" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>100</v>
+      </c>
+      <c r="R92" t="s">
+        <v>260</v>
+      </c>
+      <c r="U92" t="s">
+        <v>58</v>
+      </c>
+      <c r="V92" t="s">
+        <v>100</v>
+      </c>
+      <c r="W92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P93" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>100</v>
+      </c>
+      <c r="R93" t="s">
+        <v>260</v>
+      </c>
+      <c r="U93" t="s">
+        <v>62</v>
+      </c>
+      <c r="V93" t="s">
+        <v>100</v>
+      </c>
+      <c r="W93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>92</v>
+      </c>
+      <c r="R94" t="s">
+        <v>260</v>
+      </c>
+      <c r="U94" t="s">
+        <v>63</v>
+      </c>
+      <c r="V94" t="s">
+        <v>92</v>
+      </c>
+      <c r="W94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>92</v>
+      </c>
+      <c r="R95" t="s">
+        <v>260</v>
+      </c>
+      <c r="U95" t="s">
+        <v>64</v>
+      </c>
+      <c r="V95" t="s">
+        <v>92</v>
+      </c>
+      <c r="W95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>92</v>
+      </c>
+      <c r="R96" t="s">
+        <v>260</v>
+      </c>
+      <c r="U96" t="s">
+        <v>65</v>
+      </c>
+      <c r="V96" t="s">
+        <v>92</v>
+      </c>
+      <c r="W96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>98</v>
+      </c>
+      <c r="R97" t="s">
+        <v>260</v>
+      </c>
+      <c r="U97" t="s">
+        <v>66</v>
+      </c>
+      <c r="V97" t="s">
+        <v>98</v>
+      </c>
+      <c r="W97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P98" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>98</v>
+      </c>
+      <c r="R98" t="s">
+        <v>260</v>
+      </c>
+      <c r="U98" t="s">
+        <v>67</v>
+      </c>
+      <c r="V98" t="s">
+        <v>98</v>
+      </c>
+      <c r="W98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>96</v>
+      </c>
+      <c r="R99" t="s">
+        <v>260</v>
+      </c>
+      <c r="U99" t="s">
+        <v>68</v>
+      </c>
+      <c r="V99" t="s">
+        <v>96</v>
+      </c>
+      <c r="W99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P100" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>94</v>
+      </c>
+      <c r="R100" t="s">
+        <v>260</v>
+      </c>
+      <c r="U100" t="s">
+        <v>70</v>
+      </c>
+      <c r="V100" t="s">
+        <v>94</v>
+      </c>
+      <c r="W100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>96</v>
+      </c>
+      <c r="R101" t="s">
+        <v>260</v>
+      </c>
+      <c r="U101" t="s">
+        <v>71</v>
+      </c>
+      <c r="V101" t="s">
+        <v>96</v>
+      </c>
+      <c r="W101" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>98</v>
+      </c>
+      <c r="R102" t="s">
+        <v>260</v>
+      </c>
+      <c r="U102" t="s">
+        <v>72</v>
+      </c>
+      <c r="V102" t="s">
+        <v>98</v>
+      </c>
+      <c r="W102" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>100</v>
+      </c>
+      <c r="R103" t="s">
+        <v>260</v>
+      </c>
+      <c r="U103" t="s">
+        <v>69</v>
+      </c>
+      <c r="V103" t="s">
+        <v>100</v>
+      </c>
+      <c r="W103" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>100</v>
+      </c>
+      <c r="R104" t="s">
+        <v>260</v>
+      </c>
+      <c r="U104" t="s">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s">
+        <v>100</v>
+      </c>
+      <c r="W104" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P105" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>92</v>
+      </c>
+      <c r="R105" t="s">
+        <v>260</v>
+      </c>
+      <c r="U105" t="s">
+        <v>74</v>
+      </c>
+      <c r="V105" t="s">
+        <v>92</v>
+      </c>
+      <c r="W105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>92</v>
+      </c>
+      <c r="R106" t="s">
+        <v>260</v>
+      </c>
+      <c r="U106" t="s">
+        <v>75</v>
+      </c>
+      <c r="V106" t="s">
+        <v>92</v>
+      </c>
+      <c r="W106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>92</v>
+      </c>
+      <c r="R107" t="s">
+        <v>260</v>
+      </c>
+      <c r="U107" t="s">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s">
+        <v>92</v>
+      </c>
+      <c r="W107" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P108" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>98</v>
+      </c>
+      <c r="R108" t="s">
+        <v>260</v>
+      </c>
+      <c r="U108" t="s">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s">
+        <v>98</v>
+      </c>
+      <c r="W108" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P109" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>98</v>
+      </c>
+      <c r="R109" t="s">
+        <v>260</v>
+      </c>
+      <c r="U109" t="s">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s">
+        <v>98</v>
+      </c>
+      <c r="W109" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>258</v>
+      </c>
+      <c r="W110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P125" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>90</v>
+      </c>
+      <c r="R125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P126" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>98</v>
+      </c>
+      <c r="R126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>96</v>
+      </c>
+      <c r="R127" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P128" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>100</v>
+      </c>
+      <c r="R128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P129" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>94</v>
+      </c>
+      <c r="R129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>96</v>
+      </c>
+      <c r="R130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>98</v>
+      </c>
+      <c r="R131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P132" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>100</v>
+      </c>
+      <c r="R132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>92</v>
+      </c>
+      <c r="R133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>92</v>
+      </c>
+      <c r="R134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P135" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>92</v>
+      </c>
+      <c r="R135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P136" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>98</v>
+      </c>
+      <c r="R136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P137" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>90</v>
+      </c>
+      <c r="R137" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P138" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>98</v>
+      </c>
+      <c r="R138" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P139" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>98</v>
+      </c>
+      <c r="R139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P140" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>96</v>
+      </c>
+      <c r="R140" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P141" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>100</v>
+      </c>
+      <c r="R141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P142" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>94</v>
+      </c>
+      <c r="R142" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P143" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>96</v>
+      </c>
+      <c r="R143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P144" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>98</v>
+      </c>
+      <c r="R144" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>100</v>
+      </c>
+      <c r="R145" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P146" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>92</v>
+      </c>
+      <c r="R146" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P147" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>92</v>
+      </c>
+      <c r="R147" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P148" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>92</v>
+      </c>
+      <c r="R148" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>98</v>
+      </c>
+      <c r="R149" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>90</v>
+      </c>
+      <c r="R150" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>98</v>
+      </c>
+      <c r="R151" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="R152" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="165" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="M165" t="s">
+        <v>142</v>
+      </c>
+      <c r="O165" t="s">
+        <v>363</v>
+      </c>
+      <c r="P165" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="M166" t="s">
+        <v>143</v>
+      </c>
+      <c r="N166" t="s">
+        <v>235</v>
+      </c>
+      <c r="O166" t="s">
+        <v>352</v>
+      </c>
+      <c r="P166" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="M167" t="s">
+        <v>144</v>
+      </c>
+      <c r="N167" t="s">
+        <v>352</v>
+      </c>
+      <c r="O167" t="s">
+        <v>247</v>
+      </c>
+      <c r="P167" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>5</v>
+      </c>
+      <c r="M168" t="s">
+        <v>145</v>
+      </c>
+      <c r="N168" t="s">
+        <v>237</v>
+      </c>
+      <c r="O168" t="s">
+        <v>235</v>
+      </c>
+      <c r="P168" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>6</v>
+      </c>
+      <c r="M169" t="s">
+        <v>146</v>
+      </c>
+      <c r="N169" t="s">
+        <v>238</v>
+      </c>
+      <c r="O169" t="s">
+        <v>352</v>
+      </c>
+      <c r="P169" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>7</v>
+      </c>
+      <c r="M170" t="s">
+        <v>147</v>
+      </c>
+      <c r="N170" t="s">
+        <v>239</v>
+      </c>
+      <c r="O170" t="s">
+        <v>237</v>
+      </c>
+      <c r="P170" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>8</v>
+      </c>
+      <c r="M171" t="s">
+        <v>148</v>
+      </c>
+      <c r="N171" t="s">
+        <v>240</v>
+      </c>
+      <c r="O171" t="s">
+        <v>238</v>
+      </c>
+      <c r="P171" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>9</v>
+      </c>
+      <c r="M172" t="s">
+        <v>149</v>
+      </c>
+      <c r="N172" t="s">
+        <v>241</v>
+      </c>
+      <c r="O172" t="s">
+        <v>239</v>
+      </c>
+      <c r="P172" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>10</v>
+      </c>
+      <c r="M173" t="s">
+        <v>150</v>
+      </c>
+      <c r="N173" t="s">
+        <v>242</v>
+      </c>
+      <c r="O173" t="s">
+        <v>240</v>
+      </c>
+      <c r="P173" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>11</v>
+      </c>
+      <c r="M174" t="s">
+        <v>151</v>
+      </c>
+      <c r="N174" t="s">
+        <v>243</v>
+      </c>
+      <c r="O174" t="s">
+        <v>241</v>
+      </c>
+      <c r="P174" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>12</v>
+      </c>
+      <c r="M175" t="s">
+        <v>152</v>
+      </c>
+      <c r="N175" t="s">
+        <v>244</v>
+      </c>
+      <c r="O175" t="s">
+        <v>242</v>
+      </c>
+      <c r="P175" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>13</v>
+      </c>
+      <c r="M176" t="s">
+        <v>153</v>
+      </c>
+      <c r="N176" t="s">
+        <v>353</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>14</v>
+      </c>
+      <c r="M177" t="s">
+        <v>154</v>
+      </c>
+      <c r="N177" t="s">
+        <v>352</v>
+      </c>
+      <c r="O177" t="s">
+        <v>354</v>
+      </c>
+      <c r="P177" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>15</v>
+      </c>
+      <c r="M178" t="s">
+        <v>155</v>
+      </c>
+      <c r="N178" t="s">
+        <v>247</v>
+      </c>
+      <c r="O178" t="s">
+        <v>364</v>
+      </c>
+      <c r="P178" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>16</v>
+      </c>
+      <c r="M179" t="s">
+        <v>156</v>
+      </c>
+      <c r="N179" t="s">
+        <v>248</v>
+      </c>
+      <c r="O179" t="s">
+        <v>352</v>
+      </c>
+      <c r="P179" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>17</v>
+      </c>
+      <c r="M180" t="s">
+        <v>157</v>
+      </c>
+      <c r="N180" t="s">
+        <v>249</v>
+      </c>
+      <c r="O180" t="s">
+        <v>247</v>
+      </c>
+      <c r="P180" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>18</v>
+      </c>
+      <c r="M181" t="s">
+        <v>158</v>
+      </c>
+      <c r="N181" t="s">
+        <v>250</v>
+      </c>
+      <c r="O181" t="s">
+        <v>235</v>
+      </c>
+      <c r="P181" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>19</v>
+      </c>
+      <c r="M182" t="s">
+        <v>159</v>
+      </c>
+      <c r="N182" t="s">
+        <v>251</v>
+      </c>
+      <c r="O182" t="s">
+        <v>352</v>
+      </c>
+      <c r="P182" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="183" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>20</v>
+      </c>
+      <c r="M183" t="s">
+        <v>160</v>
+      </c>
+      <c r="N183" t="s">
+        <v>252</v>
+      </c>
+      <c r="O183" t="s">
+        <v>237</v>
+      </c>
+      <c r="P183" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>21</v>
+      </c>
+      <c r="M184" t="s">
+        <v>161</v>
+      </c>
+      <c r="N184" t="s">
+        <v>253</v>
+      </c>
+      <c r="O184" t="s">
+        <v>238</v>
+      </c>
+      <c r="P184" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>22</v>
+      </c>
+      <c r="M185" t="s">
+        <v>162</v>
+      </c>
+      <c r="N185" t="s">
+        <v>238</v>
+      </c>
+      <c r="O185" t="s">
+        <v>239</v>
+      </c>
+      <c r="P185" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>23</v>
+      </c>
+      <c r="M186" t="s">
+        <v>163</v>
+      </c>
+      <c r="N186" t="s">
+        <v>254</v>
+      </c>
+      <c r="O186" t="s">
+        <v>240</v>
+      </c>
+      <c r="P186" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>24</v>
+      </c>
+      <c r="M187" t="s">
+        <v>164</v>
+      </c>
+      <c r="N187" t="s">
+        <v>255</v>
+      </c>
+      <c r="O187" t="s">
+        <v>241</v>
+      </c>
+      <c r="P187" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>25</v>
+      </c>
+      <c r="M188" t="s">
+        <v>165</v>
+      </c>
+      <c r="N188" t="s">
+        <v>251</v>
+      </c>
+      <c r="O188" t="s">
+        <v>242</v>
+      </c>
+      <c r="P188" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>26</v>
+      </c>
+      <c r="M189" t="s">
+        <v>166</v>
+      </c>
+      <c r="N189" t="s">
+        <v>252</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>27</v>
+      </c>
+      <c r="M190" t="s">
+        <v>167</v>
+      </c>
+      <c r="N190" t="s">
+        <v>256</v>
+      </c>
+      <c r="O190" t="s">
+        <v>354</v>
+      </c>
+      <c r="P190" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207" t="s">
+        <v>90</v>
+      </c>
+      <c r="L207" t="s">
+        <v>258</v>
+      </c>
+      <c r="N207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>363</v>
+      </c>
+      <c r="D208" t="s">
+        <v>363</v>
+      </c>
+      <c r="J208" t="s">
+        <v>259</v>
+      </c>
+      <c r="K208" t="s">
+        <v>98</v>
+      </c>
+      <c r="L208" t="s">
+        <v>260</v>
+      </c>
+      <c r="N208" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>235</v>
+      </c>
+      <c r="J209" t="s">
+        <v>261</v>
+      </c>
+      <c r="K209" t="s">
+        <v>94</v>
+      </c>
+      <c r="L209" t="s">
+        <v>260</v>
+      </c>
+      <c r="N209" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>352</v>
+      </c>
+      <c r="J210" t="s">
+        <v>262</v>
+      </c>
+      <c r="K210" t="s">
+        <v>96</v>
+      </c>
+      <c r="L210" t="s">
+        <v>260</v>
+      </c>
+      <c r="N210" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>237</v>
+      </c>
+      <c r="J211" t="s">
+        <v>263</v>
+      </c>
+      <c r="K211" t="s">
+        <v>98</v>
+      </c>
+      <c r="L211" t="s">
+        <v>260</v>
+      </c>
+      <c r="N211" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="212" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>238</v>
+      </c>
+      <c r="J212" t="s">
+        <v>264</v>
+      </c>
+      <c r="K212" t="s">
+        <v>100</v>
+      </c>
+      <c r="L212" t="s">
+        <v>260</v>
+      </c>
+      <c r="N212" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="213" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>239</v>
+      </c>
+      <c r="J213" t="s">
+        <v>265</v>
+      </c>
+      <c r="K213" t="s">
+        <v>92</v>
+      </c>
+      <c r="L213" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>240</v>
+      </c>
+      <c r="J214" t="s">
+        <v>266</v>
+      </c>
+      <c r="K214" t="s">
+        <v>92</v>
+      </c>
+      <c r="L214" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="215" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>241</v>
+      </c>
+      <c r="J215" t="s">
+        <v>267</v>
+      </c>
+      <c r="K215" t="s">
+        <v>92</v>
+      </c>
+      <c r="L215" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>242</v>
+      </c>
+      <c r="J216" t="s">
+        <v>268</v>
+      </c>
+      <c r="K216" t="s">
+        <v>98</v>
+      </c>
+      <c r="L216" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>397</v>
+      </c>
+      <c r="J217" t="s">
+        <v>269</v>
+      </c>
+      <c r="K217" t="s">
+        <v>98</v>
+      </c>
+      <c r="L217" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>363</v>
+      </c>
+      <c r="J218" t="s">
+        <v>366</v>
+      </c>
+      <c r="K218" t="s">
+        <v>92</v>
+      </c>
+      <c r="L218" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="219" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>352</v>
+      </c>
+      <c r="J219" t="s">
+        <v>367</v>
+      </c>
+      <c r="K219" t="s">
+        <v>96</v>
+      </c>
+      <c r="L219" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>395</v>
+      </c>
+      <c r="J220" t="s">
+        <v>368</v>
+      </c>
+      <c r="K220" t="s">
+        <v>108</v>
+      </c>
+      <c r="L220" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="221" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>257</v>
+      </c>
+      <c r="J221" t="s">
+        <v>369</v>
+      </c>
+      <c r="K221" t="s">
+        <v>100</v>
+      </c>
+      <c r="L221" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="222" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>235</v>
+      </c>
+      <c r="J222" t="s">
+        <v>370</v>
+      </c>
+      <c r="K222" t="s">
+        <v>94</v>
+      </c>
+      <c r="L222" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="223" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>352</v>
+      </c>
+      <c r="J223" t="s">
+        <v>371</v>
+      </c>
+      <c r="K223" t="s">
+        <v>96</v>
+      </c>
+      <c r="L223" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="224" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>237</v>
+      </c>
+      <c r="J224" t="s">
+        <v>372</v>
+      </c>
+      <c r="K224" t="s">
+        <v>98</v>
+      </c>
+      <c r="L224" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>238</v>
+      </c>
+      <c r="J225" t="s">
+        <v>373</v>
+      </c>
+      <c r="K225" t="s">
+        <v>100</v>
+      </c>
+      <c r="L225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>239</v>
+      </c>
+      <c r="J226" t="s">
+        <v>374</v>
+      </c>
+      <c r="K226" t="s">
+        <v>92</v>
+      </c>
+      <c r="L226" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="227" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>240</v>
+      </c>
+      <c r="J227" t="s">
+        <v>375</v>
+      </c>
+      <c r="K227" t="s">
+        <v>92</v>
+      </c>
+      <c r="L227" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>241</v>
+      </c>
+      <c r="J228" t="s">
+        <v>376</v>
+      </c>
+      <c r="K228" t="s">
+        <v>92</v>
+      </c>
+      <c r="L228" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>242</v>
+      </c>
+      <c r="J229" t="s">
+        <v>377</v>
+      </c>
+      <c r="K229" t="s">
+        <v>98</v>
+      </c>
+      <c r="L229" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>398</v>
+      </c>
+      <c r="J230" t="s">
+        <v>378</v>
+      </c>
+      <c r="K230" t="s">
+        <v>98</v>
+      </c>
+      <c r="L230" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="231" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>352</v>
+      </c>
+      <c r="J231" t="s">
+        <v>379</v>
+      </c>
+      <c r="K231" t="s">
+        <v>96</v>
+      </c>
+      <c r="L231" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>399</v>
+      </c>
+      <c r="J232" t="s">
+        <v>380</v>
+      </c>
+      <c r="K232" t="s">
+        <v>381</v>
+      </c>
+      <c r="L232" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>238</v>
+      </c>
+      <c r="J233" t="s">
+        <v>382</v>
+      </c>
+      <c r="K233" t="s">
+        <v>98</v>
+      </c>
+      <c r="L233" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="234" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>239</v>
+      </c>
+      <c r="J234" t="s">
+        <v>383</v>
+      </c>
+      <c r="K234" t="s">
+        <v>98</v>
+      </c>
+      <c r="L234" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="235" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>240</v>
+      </c>
+      <c r="J235" t="s">
+        <v>384</v>
+      </c>
+      <c r="K235" t="s">
+        <v>98</v>
+      </c>
+      <c r="L235" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>241</v>
+      </c>
+      <c r="J236" t="s">
+        <v>385</v>
+      </c>
+      <c r="K236" t="s">
+        <v>98</v>
+      </c>
+      <c r="L236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>242</v>
+      </c>
+      <c r="J237" t="s">
+        <v>386</v>
+      </c>
+      <c r="K237" t="s">
+        <v>98</v>
+      </c>
+      <c r="L237" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="238" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>396</v>
+      </c>
+      <c r="J238" t="s">
+        <v>387</v>
+      </c>
+      <c r="K238" t="s">
+        <v>98</v>
+      </c>
+      <c r="L238" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="239" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L239" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="243" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>91</v>
+      </c>
+      <c r="K243" t="s">
+        <v>98</v>
+      </c>
+      <c r="M243" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="244" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>93</v>
+      </c>
+      <c r="K244" t="s">
+        <v>94</v>
+      </c>
+      <c r="O244" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="245" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>95</v>
+      </c>
+      <c r="K245" t="s">
+        <v>96</v>
+      </c>
+      <c r="O245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>97</v>
+      </c>
+      <c r="K246" t="s">
+        <v>98</v>
+      </c>
+      <c r="O246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>99</v>
+      </c>
+      <c r="K247" t="s">
+        <v>100</v>
+      </c>
+      <c r="O247" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>101</v>
+      </c>
+      <c r="K248" t="s">
+        <v>92</v>
+      </c>
+      <c r="O248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>102</v>
+      </c>
+      <c r="K249" t="s">
+        <v>92</v>
+      </c>
+      <c r="O249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J250" t="s">
+        <v>103</v>
+      </c>
+      <c r="K250" t="s">
+        <v>92</v>
+      </c>
+      <c r="O250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J251" t="s">
+        <v>104</v>
+      </c>
+      <c r="K251" t="s">
+        <v>98</v>
+      </c>
+      <c r="O251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J252" t="s">
+        <v>105</v>
+      </c>
+      <c r="K252" t="s">
+        <v>98</v>
+      </c>
+      <c r="O252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J253" t="s">
+        <v>168</v>
+      </c>
+      <c r="K253" t="s">
+        <v>92</v>
+      </c>
+      <c r="O253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J254" t="s">
+        <v>169</v>
+      </c>
+      <c r="K254" t="s">
+        <v>96</v>
+      </c>
+      <c r="O254" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="255" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J255" t="s">
+        <v>170</v>
+      </c>
+      <c r="K255" t="s">
+        <v>108</v>
+      </c>
+      <c r="O255" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="256" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J256" t="s">
+        <v>171</v>
+      </c>
+      <c r="K256" t="s">
+        <v>100</v>
+      </c>
+      <c r="O256" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="257" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J257" t="s">
+        <v>172</v>
+      </c>
+      <c r="K257" t="s">
+        <v>94</v>
+      </c>
+      <c r="O257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>173</v>
+      </c>
+      <c r="K258" t="s">
+        <v>96</v>
+      </c>
+      <c r="O258" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>174</v>
+      </c>
+      <c r="K259" t="s">
+        <v>98</v>
+      </c>
+      <c r="O259" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="260" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>175</v>
+      </c>
+      <c r="K260" t="s">
+        <v>100</v>
+      </c>
+      <c r="O260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J261" t="s">
+        <v>176</v>
+      </c>
+      <c r="K261" t="s">
+        <v>92</v>
+      </c>
+      <c r="O261" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>177</v>
+      </c>
+      <c r="K262" t="s">
+        <v>92</v>
+      </c>
+      <c r="O262" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="263" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J263" t="s">
+        <v>178</v>
+      </c>
+      <c r="K263" t="s">
+        <v>92</v>
+      </c>
+      <c r="O263" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="264" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>179</v>
+      </c>
+      <c r="K264" t="s">
+        <v>98</v>
+      </c>
+      <c r="O264" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="265" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J265" t="s">
+        <v>183</v>
+      </c>
+      <c r="K265" t="s">
+        <v>98</v>
+      </c>
+      <c r="O265" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="266" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>180</v>
+      </c>
+      <c r="K266" t="s">
+        <v>96</v>
+      </c>
+      <c r="O266" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="267" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J267" t="s">
+        <v>388</v>
+      </c>
+      <c r="K267" t="s">
+        <v>381</v>
+      </c>
+      <c r="O267" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="268" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J268" t="s">
+        <v>389</v>
+      </c>
+      <c r="K268" t="s">
+        <v>98</v>
+      </c>
+      <c r="O268" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="269" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J269" t="s">
+        <v>390</v>
+      </c>
+      <c r="K269" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="270" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J270" t="s">
+        <v>391</v>
+      </c>
+      <c r="K270" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="271" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J271" t="s">
+        <v>392</v>
+      </c>
+      <c r="K271" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="272" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J272" t="s">
+        <v>393</v>
+      </c>
+      <c r="K272" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="273" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J273" t="s">
+        <v>394</v>
+      </c>
+      <c r="K273" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>